--- a/hc_bot/results.xlsx
+++ b/hc_bot/results.xlsx
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43054.75</v>
+        <v>43058.75</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43054.7534722222</v>
+        <v>43058.7534722222</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43054.7569444444</v>
+        <v>43058.7569444444</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43054.7604166667</v>
+        <v>43058.7604166667</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43054.7638888889</v>
+        <v>43058.7638888889</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -594,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43054.7673611111</v>
+        <v>43058.7673611111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -611,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43054.7708333333</v>
+        <v>43058.7708333333</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43054.7743055556</v>
+        <v>43058.7743055556</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43054.7777777778</v>
+        <v>43058.7777777778</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43054.78125</v>
+        <v>43058.78125</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43054.7847222222</v>
+        <v>43058.7847222222</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -690,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>43054.7881944444</v>
+        <v>43058.7881944444</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -707,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>43054.7916666667</v>
+        <v>43058.7916666667</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -724,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>43054.7951388889</v>
+        <v>43058.7951388889</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
